--- a/data/trans_orig/IP18A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF8766B4-CB16-479D-A254-F6B8F20D7E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90D18DC8-A080-4419-AB7A-05D33C86D373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{27788253-FD2D-4875-8B22-94B4448B7771}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A0B71CF5-156F-42D6-9941-7000A4CC3E98}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,99 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>98,13%</t>
   </si>
   <si>
@@ -101,9 +188,6 @@
     <t>99,26%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>1,87%</t>
   </si>
   <si>
@@ -131,64 +215,55 @@
     <t>2,92%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,81 +323,6 @@
     <t>3,71%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
     <t>98,41%</t>
   </si>
   <si>
@@ -380,6 +380,84 @@
     <t>Menores según su última visita al médico fue por otro motivo en 2012 (Tasa respuesta: 91,19%)</t>
   </si>
   <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
     <t>99,05%</t>
   </si>
   <si>
@@ -434,52 +512,52 @@
     <t>2,66%</t>
   </si>
   <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
   </si>
   <si>
     <t>97,73%</t>
@@ -512,84 +590,6 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
     <t>97,76%</t>
   </si>
   <si>
@@ -641,6 +641,66 @@
     <t>Menores según su última visita al médico fue por otro motivo en 2015 (Tasa respuesta: 88,24%)</t>
   </si>
   <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
     <t>97,98%</t>
   </si>
   <si>
@@ -689,34 +749,46 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
   </si>
   <si>
     <t>97,26%</t>
@@ -755,78 +827,6 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
     <t>97,94%</t>
   </si>
   <si>
@@ -854,6 +854,72 @@
     <t>Menores según su última visita al médico fue por otro motivo en 2023 (Tasa respuesta: 17,76%)</t>
   </si>
   <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
     <t>96,35%</t>
   </si>
   <si>
@@ -890,40 +956,46 @@
     <t>7,08%</t>
   </si>
   <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>88,42%</t>
@@ -966,78 +1038,6 @@
   </si>
   <si>
     <t>17,73%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
   </si>
   <si>
     <t>90,59%</t>
@@ -1465,7 +1465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E20144-E00E-4D6C-850C-813057E1AC0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CD59C3-BB94-41D7-80DE-6C5DE8000AE1}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1583,10 +1583,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>268</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>175948</v>
+        <v>22186</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1598,85 +1598,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>163518</v>
+        <v>19504</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>54</v>
+      </c>
+      <c r="N4" s="7">
+        <v>41690</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>530</v>
-      </c>
-      <c r="N4" s="7">
-        <v>339466</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3348</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1835</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>8</v>
-      </c>
-      <c r="N5" s="7">
-        <v>5183</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,54 +1685,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>273</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>179296</v>
+        <v>22186</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>165353</v>
+        <v>19504</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>538</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>344649</v>
+        <v>41690</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1744,13 +1744,13 @@
         <v>104807</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
@@ -1759,13 +1759,13 @@
         <v>94733</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>299</v>
@@ -1774,19 +1774,19 @@
         <v>199540</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -1795,13 +1795,13 @@
         <v>2004</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1810,13 +1810,13 @@
         <v>598</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1825,13 +1825,13 @@
         <v>2602</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1846,13 +1846,13 @@
         <v>106811</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>142</v>
@@ -1861,13 +1861,13 @@
         <v>95331</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>303</v>
@@ -1876,117 +1876,117 @@
         <v>202142</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D10" s="7">
-        <v>179142</v>
+        <v>175948</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="I10" s="7">
-        <v>186437</v>
+        <v>163518</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="N10" s="7">
-        <v>365578</v>
+        <v>339466</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3348</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="7">
         <v>3</v>
       </c>
-      <c r="D11" s="7">
-        <v>2164</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
       <c r="I11" s="7">
-        <v>5395</v>
+        <v>1835</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>7559</v>
+        <v>5183</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,153 +1995,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D12" s="7">
-        <v>181306</v>
+        <v>179296</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="I12" s="7">
-        <v>191832</v>
+        <v>165353</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="N12" s="7">
-        <v>373137</v>
+        <v>344649</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="D13" s="7">
-        <v>22186</v>
+        <v>130737</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="I13" s="7">
-        <v>19504</v>
+        <v>121653</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>404</v>
       </c>
       <c r="N13" s="7">
-        <v>41690</v>
+        <v>252391</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2411</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2924</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="7">
+        <v>9</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5335</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,150 +2150,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="D15" s="7">
-        <v>22186</v>
+        <v>133148</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="I15" s="7">
-        <v>19504</v>
+        <v>124577</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>413</v>
       </c>
       <c r="N15" s="7">
-        <v>41690</v>
+        <v>257726</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="D16" s="7">
-        <v>130737</v>
+        <v>179142</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>244</v>
+      </c>
+      <c r="I16" s="7">
+        <v>186437</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="7">
-        <v>202</v>
-      </c>
-      <c r="I16" s="7">
-        <v>121653</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>509</v>
+      </c>
+      <c r="N16" s="7">
+        <v>365578</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M16" s="7">
-        <v>404</v>
-      </c>
-      <c r="N16" s="7">
-        <v>252391</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>2411</v>
+        <v>2164</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5395</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="7">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2924</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>10</v>
+      </c>
+      <c r="N17" s="7">
+        <v>7559</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M17" s="7">
-        <v>9</v>
-      </c>
-      <c r="N17" s="7">
-        <v>5335</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>93</v>
@@ -2305,49 +2305,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="D18" s="7">
-        <v>133148</v>
+        <v>181306</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="I18" s="7">
-        <v>124577</v>
+        <v>191832</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>413</v>
+        <v>519</v>
       </c>
       <c r="N18" s="7">
-        <v>257726</v>
+        <v>373137</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,7 +2406,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>15</v>
@@ -2466,13 +2466,13 @@
         <v>622748</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>890</v>
@@ -2481,13 +2481,13 @@
         <v>596596</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1827</v>
@@ -2496,13 +2496,13 @@
         <v>1219344</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2523,7 +2523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DB9470-168B-49BE-8644-8307C9A30900}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E99459E-4EC1-47E9-BF20-E4BEFCA586D7}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2641,10 +2641,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>285</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>197328</v>
+        <v>21630</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>113</v>
@@ -2653,88 +2653,88 @@
         <v>114</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7">
+        <v>20777</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="7">
-        <v>288</v>
-      </c>
-      <c r="I4" s="7">
-        <v>186584</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>48</v>
+      </c>
+      <c r="N4" s="7">
+        <v>42407</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M4" s="7">
-        <v>573</v>
-      </c>
-      <c r="N4" s="7">
-        <v>383913</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1897</v>
+        <v>2036</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2036</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3668</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M5" s="7">
-        <v>9</v>
-      </c>
-      <c r="N5" s="7">
-        <v>5565</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,54 +2743,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>288</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7">
-        <v>199225</v>
+        <v>23666</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>294</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>190252</v>
+        <v>20777</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>582</v>
+        <v>50</v>
       </c>
       <c r="N6" s="7">
-        <v>389478</v>
+        <v>44443</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2802,13 +2802,13 @@
         <v>113442</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
         <v>149</v>
@@ -2817,13 +2817,13 @@
         <v>106917</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>310</v>
@@ -2832,19 +2832,19 @@
         <v>220358</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -2853,13 +2853,13 @@
         <v>4524</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2868,13 +2868,13 @@
         <v>704</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -2883,13 +2883,13 @@
         <v>5228</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2904,13 @@
         <v>117966</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>150</v>
@@ -2919,13 +2919,13 @@
         <v>107621</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>317</v>
@@ -2934,114 +2934,114 @@
         <v>225586</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="D10" s="7">
-        <v>192525</v>
+        <v>197328</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="7">
+        <v>288</v>
+      </c>
+      <c r="I10" s="7">
+        <v>186584</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M10" s="7">
+        <v>573</v>
+      </c>
+      <c r="N10" s="7">
+        <v>383913</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10" s="7">
-        <v>254</v>
-      </c>
-      <c r="I10" s="7">
-        <v>193845</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="7">
-        <v>515</v>
-      </c>
-      <c r="N10" s="7">
-        <v>386369</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1897</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="7">
         <v>6</v>
       </c>
-      <c r="D11" s="7">
-        <v>4474</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>3668</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2904</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>9</v>
+      </c>
+      <c r="N11" s="7">
+        <v>5565</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="M11" s="7">
-        <v>10</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7378</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>156</v>
@@ -3053,63 +3053,63 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="D12" s="7">
-        <v>196999</v>
+        <v>199225</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="I12" s="7">
-        <v>196749</v>
+        <v>190252</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="N12" s="7">
-        <v>393747</v>
+        <v>389478</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="D13" s="7">
-        <v>21630</v>
+        <v>148052</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>157</v>
@@ -3118,88 +3118,88 @@
         <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>209</v>
       </c>
       <c r="I13" s="7">
-        <v>20777</v>
+        <v>134548</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>48</v>
+        <v>435</v>
       </c>
       <c r="N13" s="7">
-        <v>42407</v>
+        <v>282600</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>2036</v>
+        <v>2509</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>2036</v>
+        <v>3136</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,150 +3208,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="D15" s="7">
-        <v>23666</v>
+        <v>150561</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="I15" s="7">
-        <v>20777</v>
+        <v>135175</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>50</v>
+        <v>440</v>
       </c>
       <c r="N15" s="7">
-        <v>44443</v>
+        <v>285736</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="D16" s="7">
-        <v>148052</v>
+        <v>192525</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="I16" s="7">
-        <v>134548</v>
+        <v>193845</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
-        <v>435</v>
+        <v>515</v>
       </c>
       <c r="N16" s="7">
-        <v>282600</v>
+        <v>386369</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4474</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7">
         <v>4</v>
       </c>
-      <c r="D17" s="7">
-        <v>2509</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
       <c r="I17" s="7">
-        <v>627</v>
+        <v>2904</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N17" s="7">
-        <v>3136</v>
+        <v>7378</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>182</v>
@@ -3363,49 +3363,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="D18" s="7">
-        <v>150561</v>
+        <v>196999</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="I18" s="7">
-        <v>135175</v>
+        <v>196749</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>440</v>
+        <v>525</v>
       </c>
       <c r="N18" s="7">
-        <v>285736</v>
+        <v>393747</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,7 +3464,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>21</v>
@@ -3524,13 +3524,13 @@
         <v>688418</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>936</v>
@@ -3539,13 +3539,13 @@
         <v>650573</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1914</v>
@@ -3554,13 +3554,13 @@
         <v>1338990</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3581,7 +3581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D60881-EA18-448D-890C-B4C80C179929}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3A247D-3F46-4D06-AAB5-61DC63FD3232}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3699,10 +3699,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>296</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>199635</v>
+        <v>23904</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>200</v>
@@ -3711,88 +3711,88 @@
         <v>201</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
+        <v>22</v>
+      </c>
+      <c r="I4" s="7">
+        <v>20847</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H4" s="7">
-        <v>299</v>
-      </c>
-      <c r="I4" s="7">
-        <v>185778</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>50</v>
+      </c>
+      <c r="N4" s="7">
+        <v>44751</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M4" s="7">
-        <v>595</v>
-      </c>
-      <c r="N4" s="7">
-        <v>385412</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>4115</v>
+        <v>1670</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1670</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4765</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M5" s="7">
-        <v>14</v>
-      </c>
-      <c r="N5" s="7">
-        <v>8880</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,54 +3801,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>302</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>203750</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>190543</v>
+        <v>20847</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>609</v>
+        <v>52</v>
       </c>
       <c r="N6" s="7">
-        <v>394292</v>
+        <v>46421</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3860,13 +3860,13 @@
         <v>108348</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
@@ -3875,13 +3875,13 @@
         <v>96611</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
         <v>287</v>
@@ -3890,19 +3890,19 @@
         <v>204959</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3911,13 +3911,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3926,13 +3926,13 @@
         <v>2044</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3941,13 +3941,13 @@
         <v>2044</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3962,13 @@
         <v>108348</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>144</v>
@@ -3977,13 +3977,13 @@
         <v>98655</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>290</v>
@@ -3992,63 +3992,63 @@
         <v>207003</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="D10" s="7">
-        <v>172404</v>
+        <v>199635</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H10" s="7">
+        <v>299</v>
+      </c>
+      <c r="I10" s="7">
+        <v>185778</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M10" s="7">
+        <v>595</v>
+      </c>
+      <c r="N10" s="7">
+        <v>385412</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H10" s="7">
-        <v>248</v>
-      </c>
-      <c r="I10" s="7">
-        <v>182925</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M10" s="7">
-        <v>490</v>
-      </c>
-      <c r="N10" s="7">
-        <v>355329</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>227</v>
@@ -4057,52 +4057,52 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>4862</v>
+        <v>4115</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="7">
+        <v>8</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4765</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>14</v>
+      </c>
+      <c r="N11" s="7">
+        <v>8880</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3095</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="M11" s="7">
-        <v>11</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7957</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,153 +4111,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="D12" s="7">
-        <v>177266</v>
+        <v>203750</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="I12" s="7">
-        <v>186020</v>
+        <v>190543</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>501</v>
+        <v>609</v>
       </c>
       <c r="N12" s="7">
-        <v>363286</v>
+        <v>394292</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="D13" s="7">
-        <v>23904</v>
+        <v>137340</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <v>212</v>
+      </c>
+      <c r="I13" s="7">
+        <v>126494</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="7">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7">
-        <v>20847</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="7">
+        <v>417</v>
+      </c>
+      <c r="N13" s="7">
+        <v>263834</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>50</v>
-      </c>
-      <c r="N13" s="7">
-        <v>44751</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>1670</v>
+        <v>1136</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>244</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>2972</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>1670</v>
+        <v>4108</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,150 +4266,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>138476</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="I15" s="7">
-        <v>20847</v>
+        <v>129466</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>52</v>
+        <v>424</v>
       </c>
       <c r="N15" s="7">
-        <v>46421</v>
+        <v>267942</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="D16" s="7">
-        <v>137340</v>
+        <v>172404</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H16" s="7">
         <v>248</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="7">
-        <v>212</v>
-      </c>
       <c r="I16" s="7">
-        <v>126494</v>
+        <v>182925</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" s="7">
+        <v>490</v>
+      </c>
+      <c r="N16" s="7">
+        <v>355329</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M16" s="7">
-        <v>417</v>
-      </c>
-      <c r="N16" s="7">
-        <v>263834</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>1136</v>
+        <v>4862</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>2972</v>
+        <v>3095</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M17" s="7">
+        <v>11</v>
+      </c>
+      <c r="N17" s="7">
+        <v>7957</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M17" s="7">
-        <v>7</v>
-      </c>
-      <c r="N17" s="7">
-        <v>4108</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>261</v>
@@ -4421,49 +4421,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="D18" s="7">
-        <v>138476</v>
+        <v>177266</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="I18" s="7">
-        <v>129466</v>
+        <v>186020</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>424</v>
+        <v>501</v>
       </c>
       <c r="N18" s="7">
-        <v>267942</v>
+        <v>363286</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,10 +4483,10 @@
         <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H19" s="7">
         <v>922</v>
@@ -4498,7 +4498,7 @@
         <v>262</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>263</v>
@@ -4510,7 +4510,7 @@
         <v>1254286</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>264</v>
@@ -4522,7 +4522,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>17</v>
@@ -4534,10 +4534,10 @@
         <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -4552,7 +4552,7 @@
         <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>37</v>
@@ -4561,7 +4561,7 @@
         <v>24658</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>268</v>
@@ -4582,13 +4582,13 @@
         <v>653414</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>942</v>
@@ -4597,13 +4597,13 @@
         <v>625530</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1876</v>
@@ -4612,13 +4612,13 @@
         <v>1278944</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4639,7 +4639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A9FA98-9DED-4E4C-88E5-F07E78AF26BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D630B84B-602E-4406-831D-E8DBBC6CDC2F}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4757,10 +4757,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>46843</v>
+        <v>3905</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>271</v>
@@ -4769,28 +4769,28 @@
         <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>28937</v>
+        <v>4563</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="N4" s="7">
-        <v>75780</v>
+        <v>8468</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>274</v>
@@ -4799,58 +4799,58 @@
         <v>275</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1775</v>
+        <v>765</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H5" s="7">
+      <c r="M5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="7">
-        <v>158</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="N5" s="7">
+        <v>765</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="M5" s="7">
-        <v>4</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1933</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,54 +4859,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>48618</v>
+        <v>4670</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>29095</v>
+        <v>4563</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>77713</v>
+        <v>9233</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4918,13 +4918,13 @@
         <v>15346</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -4933,13 +4933,13 @@
         <v>11256</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -4948,19 +4948,19 @@
         <v>26601</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -4969,13 +4969,13 @@
         <v>539</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4984,13 +4984,13 @@
         <v>1081</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4999,13 +4999,13 @@
         <v>1620</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5020,13 @@
         <v>15885</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -5035,13 +5035,13 @@
         <v>12337</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>48</v>
@@ -5050,117 +5050,117 @@
         <v>28221</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="D10" s="7">
-        <v>24227</v>
+        <v>46843</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
+        <v>45</v>
+      </c>
+      <c r="I10" s="7">
+        <v>28937</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>116</v>
+      </c>
+      <c r="N10" s="7">
+        <v>75780</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="7">
-        <v>38</v>
-      </c>
-      <c r="I10" s="7">
-        <v>26123</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M10" s="7">
-        <v>74</v>
-      </c>
-      <c r="N10" s="7">
-        <v>50349</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>3174</v>
+        <v>1775</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>158</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1933</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2484</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="M11" s="7">
-        <v>9</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5659</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,150 +5169,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>27401</v>
+        <v>48618</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I12" s="7">
-        <v>28607</v>
+        <v>29095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="N12" s="7">
-        <v>56008</v>
+        <v>77713</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>3905</v>
+        <v>28917</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <v>34</v>
+      </c>
+      <c r="I13" s="7">
+        <v>23260</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" s="7">
+        <v>73</v>
+      </c>
+      <c r="N13" s="7">
+        <v>52177</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4563</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>12</v>
-      </c>
-      <c r="N13" s="7">
-        <v>8468</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>765</v>
+        <v>935</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2061</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>4</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2996</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>765</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>318</v>
@@ -5324,63 +5324,63 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7">
-        <v>4670</v>
+        <v>29852</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I15" s="7">
-        <v>4563</v>
+        <v>25321</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="N15" s="7">
-        <v>9233</v>
+        <v>55173</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7">
-        <v>28917</v>
+        <v>24227</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>319</v>
@@ -5389,13 +5389,13 @@
         <v>320</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="H16" s="7">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I16" s="7">
-        <v>23260</v>
+        <v>26123</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>321</v>
@@ -5404,13 +5404,13 @@
         <v>322</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="M16" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N16" s="7">
-        <v>52177</v>
+        <v>50349</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>323</v>
@@ -5425,43 +5425,43 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>935</v>
+        <v>3174</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>326</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>327</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>2061</v>
+        <v>2484</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>328</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>329</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>2996</v>
+        <v>5659</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>330</v>
@@ -5479,49 +5479,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="7">
-        <v>29852</v>
+        <v>27401</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I18" s="7">
-        <v>25321</v>
+        <v>28607</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N18" s="7">
-        <v>55173</v>
+        <v>56008</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5538,13 @@
         <v>119237</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>333</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="H19" s="7">
         <v>144</v>
@@ -5559,7 +5559,7 @@
         <v>335</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M19" s="7">
         <v>321</v>
@@ -5580,7 +5580,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>11</v>
@@ -5589,10 +5589,10 @@
         <v>7188</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>339</v>
@@ -5607,7 +5607,7 @@
         <v>340</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>341</v>
@@ -5640,13 +5640,13 @@
         <v>126425</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>153</v>
@@ -5655,13 +5655,13 @@
         <v>99923</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>341</v>
@@ -5670,13 +5670,13 @@
         <v>226348</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90D18DC8-A080-4419-AB7A-05D33C86D373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAEEA7E3-4384-4713-AB3B-B6F7B44C45A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A0B71CF5-156F-42D6-9941-7000A4CC3E98}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{990FA292-8437-420B-BAFF-64B8725DAFA6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="360">
   <si>
     <t>Menores según su última visita al médico fue por otro motivo en 2007 (Tasa respuesta: 86,83%)</t>
   </si>
@@ -71,6 +71,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -89,31 +107,37 @@
     <t>96,52%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>94,8%</t>
+    <t>94,6%</t>
   </si>
   <si>
     <t>99,44%</t>
@@ -122,958 +146,979 @@
     <t>99,37%</t>
   </si>
   <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2012 (Tasa respuesta: 91,19%)</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2015 (Tasa respuesta: 88,24%)</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
     <t>96,86%</t>
   </si>
   <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2012 (Tasa respuesta: 91,19%)</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2015 (Tasa respuesta: 88,24%)</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>94,31%</t>
   </si>
   <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>94,21%</t>
   </si>
   <si>
-    <t>88,96%</t>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1129,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1180,39 +1225,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1264,7 +1309,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1375,13 +1420,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1390,6 +1428,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1454,19 +1499,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CD59C3-BB94-41D7-80DE-6C5DE8000AE1}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E4ED19-E79F-48B2-A2E4-4946A9F8359F}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1583,10 +1648,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>22186</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1598,34 +1663,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>19504</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>41690</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1634,10 +1699,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>22186</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1649,34 +1714,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>19504</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>41690</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1691,13 +1756,13 @@
         <v>22186</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>25</v>
@@ -1706,13 +1771,13 @@
         <v>19504</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -1721,13 +1786,13 @@
         <v>41690</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1738,10 +1803,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>104807</v>
+        <v>2004</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1753,25 +1818,25 @@
         <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>94733</v>
+        <v>598</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="7">
-        <v>299</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>199540</v>
+        <v>2602</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>28</v>
@@ -1789,10 +1854,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="D8" s="7">
-        <v>2004</v>
+        <v>104807</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>31</v>
@@ -1804,25 +1869,25 @@
         <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="I8" s="7">
-        <v>598</v>
+        <v>94733</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>299</v>
       </c>
       <c r="N8" s="7">
-        <v>2602</v>
+        <v>199540</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>36</v>
@@ -1846,13 +1911,13 @@
         <v>106811</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>142</v>
@@ -1861,13 +1926,13 @@
         <v>95331</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>303</v>
@@ -1876,13 +1941,13 @@
         <v>202142</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,10 +1958,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>268</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>175948</v>
+        <v>3348</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>40</v>
@@ -1908,10 +1973,10 @@
         <v>42</v>
       </c>
       <c r="H10" s="7">
-        <v>262</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>163518</v>
+        <v>1835</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>43</v>
@@ -1923,19 +1988,19 @@
         <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>530</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>339466</v>
+        <v>5183</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,49 +2009,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>268</v>
       </c>
       <c r="D11" s="7">
-        <v>3348</v>
+        <v>175948</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>262</v>
+      </c>
+      <c r="I11" s="7">
+        <v>163518</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1835</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>530</v>
+      </c>
+      <c r="N11" s="7">
+        <v>339466</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="7">
-        <v>8</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5183</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,13 +2066,13 @@
         <v>179296</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>265</v>
@@ -2016,13 +2081,13 @@
         <v>165353</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>538</v>
@@ -2031,66 +2096,66 @@
         <v>344649</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>202</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>130737</v>
+        <v>2411</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2924</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="7">
-        <v>202</v>
-      </c>
-      <c r="I13" s="7">
-        <v>121653</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>9</v>
+      </c>
+      <c r="N13" s="7">
+        <v>5335</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M13" s="7">
-        <v>404</v>
-      </c>
-      <c r="N13" s="7">
-        <v>252391</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,46 +2164,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="D14" s="7">
-        <v>2411</v>
+        <v>130737</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>202</v>
+      </c>
+      <c r="I14" s="7">
+        <v>121653</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2924</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>404</v>
+      </c>
+      <c r="N14" s="7">
+        <v>252391</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="7">
-        <v>9</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5335</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>74</v>
@@ -2156,13 +2221,13 @@
         <v>133148</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>207</v>
@@ -2171,13 +2236,13 @@
         <v>124577</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>413</v>
@@ -2186,13 +2251,13 @@
         <v>257726</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,10 +2268,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>179142</v>
+        <v>2164</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>76</v>
@@ -2218,10 +2283,10 @@
         <v>78</v>
       </c>
       <c r="H16" s="7">
-        <v>244</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>186437</v>
+        <v>5395</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>79</v>
@@ -2233,10 +2298,10 @@
         <v>81</v>
       </c>
       <c r="M16" s="7">
-        <v>509</v>
+        <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>365578</v>
+        <v>7559</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>82</v>
@@ -2254,10 +2319,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="D17" s="7">
-        <v>2164</v>
+        <v>179142</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>85</v>
@@ -2269,10 +2334,10 @@
         <v>87</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>244</v>
       </c>
       <c r="I17" s="7">
-        <v>5395</v>
+        <v>186437</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>88</v>
@@ -2284,10 +2349,10 @@
         <v>90</v>
       </c>
       <c r="M17" s="7">
-        <v>10</v>
+        <v>509</v>
       </c>
       <c r="N17" s="7">
-        <v>7559</v>
+        <v>365578</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>91</v>
@@ -2311,13 +2376,13 @@
         <v>181306</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>251</v>
@@ -2326,13 +2391,13 @@
         <v>191832</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>519</v>
@@ -2341,13 +2406,13 @@
         <v>373137</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,10 +2423,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>922</v>
+        <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>612821</v>
+        <v>9927</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>94</v>
@@ -2373,10 +2438,10 @@
         <v>96</v>
       </c>
       <c r="H19" s="7">
-        <v>874</v>
+        <v>16</v>
       </c>
       <c r="I19" s="7">
-        <v>585844</v>
+        <v>10752</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>97</v>
@@ -2388,19 +2453,19 @@
         <v>99</v>
       </c>
       <c r="M19" s="7">
-        <v>1796</v>
+        <v>31</v>
       </c>
       <c r="N19" s="7">
-        <v>1198665</v>
+        <v>20679</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,49 +2474,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>15</v>
+        <v>922</v>
       </c>
       <c r="D20" s="7">
-        <v>9927</v>
+        <v>612821</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>874</v>
+      </c>
+      <c r="I20" s="7">
+        <v>585844</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="7">
-        <v>16</v>
-      </c>
-      <c r="I20" s="7">
-        <v>10752</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1796</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1198665</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="M20" s="7">
-        <v>31</v>
-      </c>
-      <c r="N20" s="7">
-        <v>20679</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,13 +2531,13 @@
         <v>622748</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>890</v>
@@ -2481,13 +2546,13 @@
         <v>596596</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>1827</v>
@@ -2496,13 +2561,18 @@
         <v>1219344</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2523,8 +2593,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E99459E-4EC1-47E9-BF20-E4BEFCA586D7}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC626A5-1D3E-4FDC-9679-7F44A7E1E9FD}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2540,7 +2610,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2641,49 +2711,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>21630</v>
+        <v>2036</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>20777</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2036</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>48</v>
-      </c>
-      <c r="N4" s="7">
-        <v>42407</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,49 +2762,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>2036</v>
+        <v>21630</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>20777</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>48</v>
+      </c>
+      <c r="N5" s="7">
+        <v>42407</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2036</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2819,13 @@
         <v>23666</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -2764,13 +2834,13 @@
         <v>20777</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>50</v>
@@ -2779,13 +2849,13 @@
         <v>44443</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,49 +2866,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>113442</v>
+        <v>4524</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>704</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="7">
-        <v>149</v>
-      </c>
-      <c r="I7" s="7">
-        <v>106917</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>7</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5228</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="7">
-        <v>310</v>
-      </c>
-      <c r="N7" s="7">
-        <v>220358</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,49 +2917,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="D8" s="7">
-        <v>4524</v>
+        <v>113442</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>149</v>
+      </c>
+      <c r="I8" s="7">
+        <v>106917</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>704</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>310</v>
+      </c>
+      <c r="N8" s="7">
+        <v>220358</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="M8" s="7">
-        <v>7</v>
-      </c>
-      <c r="N8" s="7">
-        <v>5228</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2974,13 @@
         <v>117966</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>150</v>
@@ -2919,13 +2989,13 @@
         <v>107621</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>317</v>
@@ -2934,13 +3004,13 @@
         <v>225586</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,49 +3021,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>285</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>197328</v>
+        <v>1897</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3668</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="7">
-        <v>288</v>
-      </c>
-      <c r="I10" s="7">
-        <v>186584</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>9</v>
+      </c>
+      <c r="N10" s="7">
+        <v>5565</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="M10" s="7">
-        <v>573</v>
-      </c>
-      <c r="N10" s="7">
-        <v>383913</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,49 +3072,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>285</v>
       </c>
       <c r="D11" s="7">
-        <v>1897</v>
+        <v>197328</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="7">
+        <v>288</v>
+      </c>
+      <c r="I11" s="7">
+        <v>186584</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>573</v>
+      </c>
+      <c r="N11" s="7">
+        <v>383913</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3668</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M11" s="7">
-        <v>9</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5565</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3129,13 @@
         <v>199225</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>294</v>
@@ -3074,13 +3144,13 @@
         <v>190252</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>582</v>
@@ -3089,66 +3159,66 @@
         <v>389478</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>226</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>148052</v>
+        <v>2509</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>627</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M13" s="7">
+        <v>5</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3136</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="H13" s="7">
-        <v>209</v>
-      </c>
-      <c r="I13" s="7">
-        <v>134548</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="7">
-        <v>435</v>
-      </c>
-      <c r="N13" s="7">
-        <v>282600</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,49 +3227,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>226</v>
       </c>
       <c r="D14" s="7">
-        <v>2509</v>
+        <v>148052</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="7">
+        <v>209</v>
+      </c>
+      <c r="I14" s="7">
+        <v>134548</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="7">
+        <v>435</v>
+      </c>
+      <c r="N14" s="7">
+        <v>282600</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>627</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3136</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3284,13 @@
         <v>150561</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>210</v>
@@ -3229,13 +3299,13 @@
         <v>135175</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>440</v>
@@ -3244,13 +3314,13 @@
         <v>285736</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,49 +3331,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>261</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>192525</v>
+        <v>4474</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H16" s="7">
-        <v>254</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>193845</v>
+        <v>2904</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7">
-        <v>515</v>
+        <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>386369</v>
+        <v>7378</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,49 +3382,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>261</v>
       </c>
       <c r="D17" s="7">
-        <v>4474</v>
+        <v>192525</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="7">
+        <v>254</v>
+      </c>
+      <c r="I17" s="7">
+        <v>193845</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="7">
+        <v>515</v>
+      </c>
+      <c r="N17" s="7">
+        <v>386369</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2904</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M17" s="7">
-        <v>10</v>
-      </c>
-      <c r="N17" s="7">
-        <v>7378</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3439,13 @@
         <v>196999</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>258</v>
@@ -3384,13 +3454,13 @@
         <v>196749</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>525</v>
@@ -3399,13 +3469,13 @@
         <v>393747</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,49 +3486,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>957</v>
+        <v>21</v>
       </c>
       <c r="D19" s="7">
-        <v>672978</v>
+        <v>15440</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="7">
+        <v>12</v>
+      </c>
+      <c r="I19" s="7">
+        <v>7903</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H19" s="7">
-        <v>924</v>
-      </c>
-      <c r="I19" s="7">
-        <v>642670</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>33</v>
+      </c>
+      <c r="N19" s="7">
+        <v>23343</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1881</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1315647</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,49 +3537,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>21</v>
+        <v>957</v>
       </c>
       <c r="D20" s="7">
-        <v>15440</v>
+        <v>672978</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>924</v>
+      </c>
+      <c r="I20" s="7">
+        <v>642670</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H20" s="7">
-        <v>12</v>
-      </c>
-      <c r="I20" s="7">
-        <v>7903</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1881</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1315647</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="M20" s="7">
-        <v>33</v>
-      </c>
-      <c r="N20" s="7">
-        <v>23343</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,13 +3594,13 @@
         <v>688418</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>936</v>
@@ -3539,13 +3609,13 @@
         <v>650573</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>1914</v>
@@ -3554,13 +3624,18 @@
         <v>1338990</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3581,8 +3656,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3A247D-3F46-4D06-AAB5-61DC63FD3232}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3037179-5665-4260-80C5-C74559AB8F27}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3598,7 +3673,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3699,49 +3774,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>23904</v>
+        <v>1670</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>20847</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1670</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>50</v>
-      </c>
-      <c r="N4" s="7">
-        <v>44751</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,49 +3825,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>1670</v>
+        <v>23904</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>20847</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>50</v>
+      </c>
+      <c r="N5" s="7">
+        <v>44751</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1670</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3882,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -3822,13 +3897,13 @@
         <v>20847</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>52</v>
@@ -3837,13 +3912,13 @@
         <v>46421</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,49 +3929,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>108348</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2044</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>141</v>
-      </c>
-      <c r="I7" s="7">
-        <v>96611</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2044</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M7" s="7">
-        <v>287</v>
-      </c>
-      <c r="N7" s="7">
-        <v>204959</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,49 +3980,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>108348</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="I8" s="7">
-        <v>2044</v>
+        <v>96611</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>217</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>287</v>
       </c>
       <c r="N8" s="7">
-        <v>2044</v>
+        <v>204959</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +4037,13 @@
         <v>108348</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>144</v>
@@ -3977,13 +4052,13 @@
         <v>98655</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>290</v>
@@ -3992,13 +4067,13 @@
         <v>207003</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,49 +4084,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>296</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>199635</v>
+        <v>4115</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>4765</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M10" s="7">
+        <v>14</v>
+      </c>
+      <c r="N10" s="7">
+        <v>8880</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H10" s="7">
-        <v>299</v>
-      </c>
-      <c r="I10" s="7">
-        <v>185778</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M10" s="7">
-        <v>595</v>
-      </c>
-      <c r="N10" s="7">
-        <v>385412</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,49 +4135,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>296</v>
       </c>
       <c r="D11" s="7">
-        <v>4115</v>
+        <v>199635</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="7">
+        <v>299</v>
+      </c>
+      <c r="I11" s="7">
+        <v>185778</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M11" s="7">
+        <v>595</v>
+      </c>
+      <c r="N11" s="7">
+        <v>385412</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4765</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M11" s="7">
-        <v>14</v>
-      </c>
-      <c r="N11" s="7">
-        <v>8880</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4192,13 @@
         <v>203750</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>307</v>
@@ -4132,13 +4207,13 @@
         <v>190543</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>609</v>
@@ -4147,66 +4222,66 @@
         <v>394292</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>137340</v>
+        <v>1136</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="H13" s="7">
-        <v>212</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>126494</v>
+        <v>2972</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
-        <v>417</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>263834</v>
+        <v>4108</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,49 +4290,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="D14" s="7">
-        <v>1136</v>
+        <v>137340</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="I14" s="7">
-        <v>2972</v>
+        <v>126494</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>417</v>
       </c>
       <c r="N14" s="7">
-        <v>4108</v>
+        <v>263834</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4347,13 @@
         <v>138476</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>217</v>
@@ -4287,13 +4362,13 @@
         <v>129466</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>424</v>
@@ -4302,13 +4377,13 @@
         <v>267942</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,46 +4394,46 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>242</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>172404</v>
+        <v>4862</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3095</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M16" s="7">
+        <v>11</v>
+      </c>
+      <c r="N16" s="7">
+        <v>7957</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H16" s="7">
-        <v>248</v>
-      </c>
-      <c r="I16" s="7">
-        <v>182925</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M16" s="7">
-        <v>490</v>
-      </c>
-      <c r="N16" s="7">
-        <v>355329</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>251</v>
@@ -4370,49 +4445,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="D17" s="7">
-        <v>4862</v>
+        <v>172404</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H17" s="7">
+        <v>248</v>
+      </c>
+      <c r="I17" s="7">
+        <v>182925</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3095</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>490</v>
+      </c>
+      <c r="N17" s="7">
+        <v>355329</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="M17" s="7">
-        <v>11</v>
-      </c>
-      <c r="N17" s="7">
-        <v>7957</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4502,13 @@
         <v>177266</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>252</v>
@@ -4442,13 +4517,13 @@
         <v>186020</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>501</v>
@@ -4457,13 +4532,13 @@
         <v>363286</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,43 +4549,43 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>917</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>641630</v>
+        <v>11784</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>922</v>
+        <v>20</v>
       </c>
       <c r="I19" s="7">
-        <v>612655</v>
+        <v>12875</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>263</v>
       </c>
       <c r="M19" s="7">
-        <v>1839</v>
+        <v>37</v>
       </c>
       <c r="N19" s="7">
-        <v>1254286</v>
+        <v>24658</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>264</v>
@@ -4525,25 +4600,25 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>17</v>
+        <v>917</v>
       </c>
       <c r="D20" s="7">
-        <v>11784</v>
+        <v>641630</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="H20" s="7">
-        <v>20</v>
+        <v>922</v>
       </c>
       <c r="I20" s="7">
-        <v>12875</v>
+        <v>612655</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>266</v>
@@ -4552,22 +4627,22 @@
         <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
-        <v>37</v>
+        <v>1839</v>
       </c>
       <c r="N20" s="7">
-        <v>24658</v>
+        <v>1254286</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4657,13 @@
         <v>653414</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>942</v>
@@ -4597,13 +4672,13 @@
         <v>625530</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>1876</v>
@@ -4612,13 +4687,18 @@
         <v>1278944</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4639,8 +4719,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D630B84B-602E-4406-831D-E8DBBC6CDC2F}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9A7BC2-4676-4E0B-92D8-582F7E47B779}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4656,7 +4736,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4757,49 +4837,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>3905</v>
+        <v>765</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>4563</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>8468</v>
+        <v>765</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,49 +4888,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>765</v>
+        <v>3905</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>277</v>
-      </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>4563</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>278</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>765</v>
+        <v>8468</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4945,13 @@
         <v>4670</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4880,13 +4960,13 @@
         <v>4563</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -4895,13 +4975,13 @@
         <v>9233</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,49 +4992,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>15346</v>
+        <v>539</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1081</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>20</v>
-      </c>
-      <c r="I7" s="7">
-        <v>11256</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>284</v>
-      </c>
       <c r="L7" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1620</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="7">
-        <v>46</v>
-      </c>
-      <c r="N7" s="7">
-        <v>26601</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>286</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,49 +5043,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>539</v>
+        <v>15346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>288</v>
-      </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I8" s="7">
-        <v>1081</v>
+        <v>11256</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="N8" s="7">
-        <v>1620</v>
+        <v>26601</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5100,13 @@
         <v>15885</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -5035,13 +5115,13 @@
         <v>12337</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>48</v>
@@ -5050,13 +5130,13 @@
         <v>28221</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,49 +5147,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>46843</v>
+        <v>1775</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>296</v>
       </c>
       <c r="H10" s="7">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>28937</v>
+        <v>158</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="M10" s="7">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>75780</v>
+        <v>1933</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,49 +5198,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="D11" s="7">
-        <v>1775</v>
+        <v>46843</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>303</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I11" s="7">
-        <v>158</v>
+        <v>28937</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="N11" s="7">
-        <v>1933</v>
+        <v>75780</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5255,13 @@
         <v>48618</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>46</v>
@@ -5190,13 +5270,13 @@
         <v>29095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>120</v>
@@ -5205,66 +5285,66 @@
         <v>77713</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>28917</v>
+        <v>935</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>23260</v>
+        <v>2061</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>125</v>
+        <v>313</v>
       </c>
       <c r="M13" s="7">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>52177</v>
+        <v>2996</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,49 +5353,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7">
-        <v>935</v>
+        <v>28917</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>312</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="I14" s="7">
-        <v>2061</v>
+        <v>23260</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>132</v>
+        <v>319</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="N14" s="7">
-        <v>2996</v>
+        <v>52177</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5410,13 @@
         <v>29852</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>37</v>
@@ -5345,13 +5425,13 @@
         <v>25321</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>77</v>
@@ -5360,13 +5440,13 @@
         <v>55173</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,49 +5457,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>24227</v>
+        <v>3174</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>60</v>
+        <v>326</v>
       </c>
       <c r="H16" s="7">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>26123</v>
+        <v>2484</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>329</v>
       </c>
       <c r="M16" s="7">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>50349</v>
+        <v>5659</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,49 +5508,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7">
-        <v>3174</v>
+        <v>24227</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="I17" s="7">
-        <v>2484</v>
+        <v>26123</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="N17" s="7">
-        <v>5659</v>
+        <v>50349</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5565,13 @@
         <v>27401</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>42</v>
@@ -5500,13 +5580,13 @@
         <v>28607</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>83</v>
@@ -5515,13 +5595,13 @@
         <v>56008</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,49 +5612,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>119237</v>
+        <v>7188</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>342</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="H19" s="7">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>94138</v>
+        <v>5785</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>163</v>
+        <v>347</v>
       </c>
       <c r="M19" s="7">
-        <v>321</v>
+        <v>20</v>
       </c>
       <c r="N19" s="7">
-        <v>213375</v>
+        <v>12973</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,49 +5663,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="D20" s="7">
-        <v>7188</v>
+        <v>119237</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>351</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>352</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="H20" s="7">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="I20" s="7">
-        <v>5785</v>
+        <v>94138</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>172</v>
+        <v>355</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="M20" s="7">
-        <v>20</v>
+        <v>321</v>
       </c>
       <c r="N20" s="7">
-        <v>12973</v>
+        <v>213375</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,13 +5720,13 @@
         <v>126425</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>153</v>
@@ -5655,13 +5735,13 @@
         <v>99923</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>341</v>
@@ -5670,13 +5750,18 @@
         <v>226348</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A06-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAEEA7E3-4384-4713-AB3B-B6F7B44C45A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{249DA48D-A77F-4C94-94F8-FB07A9AD1BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{990FA292-8437-420B-BAFF-64B8725DAFA6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B4C8F973-CB71-4C8B-881E-ADBED589F728}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="356">
   <si>
     <t>Menores según su última visita al médico fue por otro motivo en 2007 (Tasa respuesta: 86,83%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>96,52%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,88%</t>
@@ -116,100 +116,106 @@
     <t>0,56%</t>
   </si>
   <si>
-    <t>5,4%</t>
+    <t>5,31%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
   </si>
   <si>
     <t>96,83%</t>
   </si>
   <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
     <t>99,65%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>1,81%</t>
@@ -218,31 +224,31 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>4,45%</t>
+    <t>4,37%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>95,55%</t>
+    <t>95,63%</t>
   </si>
   <si>
     <t>99,52%</t>
@@ -251,19 +257,19 @@
     <t>97,65%</t>
   </si>
   <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -275,850 +281,832 @@
     <t>0,37%</t>
   </si>
   <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2012 (Tasa respuesta: 91,19%)</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2016 (Tasa respuesta: 88,24%)</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
   </si>
   <si>
     <t>96,87%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2012 (Tasa respuesta: 91,19%)</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>96,56%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2015 (Tasa respuesta: 88,24%)</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E4ED19-E79F-48B2-A2E4-4946A9F8359F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2230052-6300-4C8F-9641-0D9F16E1878D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1997,10 +1985,10 @@
         <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,13 +2003,13 @@
         <v>175948</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>262</v>
@@ -2030,13 +2018,13 @@
         <v>163518</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
         <v>530</v>
@@ -2045,13 +2033,13 @@
         <v>339466</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,7 +2095,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2119,13 +2107,13 @@
         <v>2411</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2134,13 +2122,13 @@
         <v>2924</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -2149,13 +2137,13 @@
         <v>5335</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,13 +2158,13 @@
         <v>130737</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>202</v>
@@ -2185,13 +2173,13 @@
         <v>121653</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>404</v>
@@ -2200,13 +2188,13 @@
         <v>252391</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,7 +2250,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2274,13 +2262,13 @@
         <v>2164</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2289,13 +2277,13 @@
         <v>5395</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2304,13 +2292,13 @@
         <v>7559</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,13 +2313,13 @@
         <v>179142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>244</v>
@@ -2340,13 +2328,13 @@
         <v>186437</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>509</v>
@@ -2462,10 +2450,10 @@
         <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,13 +2468,13 @@
         <v>612821</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>874</v>
@@ -2495,13 +2483,13 @@
         <v>585844</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>1796</v>
@@ -2510,13 +2498,13 @@
         <v>1198665</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,7 +2560,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2593,7 +2581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC626A5-1D3E-4FDC-9679-7F44A7E1E9FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652021C8-6658-4058-9E2C-B2B44DE46726}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2610,7 +2598,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2717,13 +2705,13 @@
         <v>2036</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2738,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2747,13 +2735,13 @@
         <v>2036</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,10 +2756,10 @@
         <v>21630</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -2786,7 +2774,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2798,10 +2786,10 @@
         <v>42407</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2872,13 +2860,13 @@
         <v>4524</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2887,13 +2875,13 @@
         <v>704</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -2902,13 +2890,13 @@
         <v>5228</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,13 +2911,13 @@
         <v>113442</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
         <v>149</v>
@@ -2938,10 +2926,10 @@
         <v>106917</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2953,13 +2941,13 @@
         <v>220358</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,13 +3015,13 @@
         <v>1897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3042,13 +3030,13 @@
         <v>3668</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3057,13 +3045,13 @@
         <v>5565</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3066,13 @@
         <v>197328</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
         <v>288</v>
@@ -3093,13 +3081,13 @@
         <v>186584</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
         <v>573</v>
@@ -3108,13 +3096,13 @@
         <v>383913</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,7 +3158,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3182,13 +3170,13 @@
         <v>2509</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3197,13 +3185,13 @@
         <v>627</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3212,13 +3200,13 @@
         <v>3136</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3221,13 @@
         <v>148052</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
         <v>209</v>
@@ -3248,10 +3236,10 @@
         <v>134548</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3263,13 +3251,13 @@
         <v>282600</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,7 +3313,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3337,13 +3325,13 @@
         <v>4474</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3352,13 +3340,13 @@
         <v>2904</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -3370,10 +3358,10 @@
         <v>40</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3376,13 @@
         <v>192525</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H17" s="7">
         <v>254</v>
@@ -3403,13 +3391,13 @@
         <v>193845</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>515</v>
@@ -3418,13 +3406,13 @@
         <v>386369</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3480,13 @@
         <v>15440</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -3507,13 +3495,13 @@
         <v>7903</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -3522,13 +3510,13 @@
         <v>23343</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3531,13 @@
         <v>672978</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H20" s="7">
         <v>924</v>
@@ -3558,13 +3546,13 @@
         <v>642670</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="M20" s="7">
         <v>1881</v>
@@ -3573,13 +3561,13 @@
         <v>1315647</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,7 +3623,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3656,7 +3644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3037179-5665-4260-80C5-C74559AB8F27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9935FB0-20DA-4FCF-BA3C-ED4592064D4D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3673,7 +3661,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3780,13 +3768,13 @@
         <v>1670</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3801,7 +3789,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3810,13 +3798,13 @@
         <v>1670</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,10 +3819,10 @@
         <v>23904</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -3849,7 +3837,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3861,10 +3849,10 @@
         <v>44751</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3941,7 +3929,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3950,13 +3938,13 @@
         <v>2044</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3965,13 +3953,13 @@
         <v>2044</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,7 +3977,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4001,13 +3989,13 @@
         <v>96611</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="M8" s="7">
         <v>287</v>
@@ -4016,10 +4004,10 @@
         <v>204959</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>38</v>
@@ -4090,13 +4078,13 @@
         <v>4115</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4105,13 +4093,13 @@
         <v>4765</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4120,13 +4108,13 @@
         <v>8880</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4129,13 @@
         <v>199635</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>299</v>
@@ -4156,13 +4144,13 @@
         <v>185778</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>595</v>
@@ -4171,13 +4159,13 @@
         <v>385412</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,7 +4221,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4245,13 +4233,13 @@
         <v>1136</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4260,13 +4248,13 @@
         <v>2972</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -4275,13 +4263,13 @@
         <v>4108</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,10 +4284,10 @@
         <v>137340</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>37</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -4311,13 +4299,13 @@
         <v>126494</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
         <v>417</v>
@@ -4326,13 +4314,13 @@
         <v>263834</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,7 +4376,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4400,13 +4388,13 @@
         <v>4862</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4415,13 +4403,13 @@
         <v>3095</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -4430,13 +4418,13 @@
         <v>7957</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4439,13 @@
         <v>172404</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>254</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>248</v>
@@ -4466,13 +4454,13 @@
         <v>182925</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="M17" s="7">
         <v>490</v>
@@ -4558,10 +4546,10 @@
         <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>47</v>
+        <v>261</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -4570,13 +4558,13 @@
         <v>12875</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -4585,13 +4573,13 @@
         <v>24658</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4594,13 @@
         <v>641630</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H20" s="7">
         <v>922</v>
@@ -4621,13 +4609,13 @@
         <v>612655</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M20" s="7">
         <v>1839</v>
@@ -4636,13 +4624,13 @@
         <v>1254286</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,7 +4686,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4719,7 +4707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9A7BC2-4676-4E0B-92D8-582F7E47B779}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5676FCB-F942-4A3C-9BA1-3715C7C73FBA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4736,7 +4724,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4843,13 +4831,13 @@
         <v>765</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4864,7 +4852,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4873,13 +4861,13 @@
         <v>765</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,10 +4882,10 @@
         <v>3905</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -4912,7 +4900,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4924,10 +4912,10 @@
         <v>8468</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4998,13 +4986,13 @@
         <v>539</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5013,13 +5001,13 @@
         <v>1081</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5028,13 +5016,13 @@
         <v>1620</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,10 +5037,10 @@
         <v>15346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -5064,10 +5052,10 @@
         <v>11256</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -5079,10 +5067,10 @@
         <v>26601</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -5153,13 +5141,13 @@
         <v>1775</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>295</v>
+        <v>144</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5168,13 +5156,13 @@
         <v>158</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -5183,10 +5171,10 @@
         <v>1933</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>301</v>
@@ -5210,7 +5198,7 @@
         <v>303</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>304</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -5219,10 +5207,10 @@
         <v>28937</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -5234,13 +5222,13 @@
         <v>75780</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>308</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>309</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,7 +5284,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5308,13 +5296,13 @@
         <v>935</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5323,13 +5311,13 @@
         <v>2061</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -5338,13 +5326,13 @@
         <v>2996</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,7 +5347,7 @@
         <v>28917</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>316</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>317</v>
@@ -5451,7 +5439,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5481,10 +5469,10 @@
         <v>327</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -5493,13 +5481,13 @@
         <v>5659</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5502,13 @@
         <v>24227</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -5529,13 +5517,13 @@
         <v>26123</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>338</v>
+        <v>179</v>
       </c>
       <c r="M17" s="7">
         <v>74</v>
@@ -5544,13 +5532,13 @@
         <v>50349</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5606,13 @@
         <v>7188</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -5633,13 +5621,13 @@
         <v>5785</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>346</v>
+        <v>96</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -5648,13 +5636,13 @@
         <v>12973</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5657,13 @@
         <v>119237</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H20" s="7">
         <v>144</v>
@@ -5684,13 +5672,13 @@
         <v>94138</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>356</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>321</v>
@@ -5699,13 +5687,13 @@
         <v>213375</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,7 +5749,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{249DA48D-A77F-4C94-94F8-FB07A9AD1BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26A7757C-1320-41E2-B739-DBA4DC088C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B4C8F973-CB71-4C8B-881E-ADBED589F728}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{50678CA1-1DE1-4067-B645-01BBA99FD255}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="322">
   <si>
     <t>Menores según su última visita al médico fue por otro motivo en 2007 (Tasa respuesta: 86,83%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1045 +68,943 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,52%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>93,64%</t>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2012 (Tasa respuesta: 91,19%)</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2016 (Tasa respuesta: 88,24%)</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2012 (Tasa respuesta: 91,19%)</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2016 (Tasa respuesta: 88,24%)</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
 </sst>
 </file>
@@ -1518,8 +1416,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2230052-6300-4C8F-9641-0D9F16E1878D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E30A03A-B0FA-48BA-AD98-1A0091F89672}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1636,10 +1534,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1651,85 +1549,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2004</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2602</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>166</v>
+      </c>
+      <c r="D5" s="7">
+        <v>114236</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>187</v>
+      </c>
+      <c r="I5" s="7">
+        <v>126993</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
+        <v>353</v>
+      </c>
+      <c r="N5" s="7">
+        <v>241230</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" s="7">
-        <v>22186</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>25</v>
-      </c>
-      <c r="I5" s="7">
-        <v>19504</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>54</v>
-      </c>
-      <c r="N5" s="7">
-        <v>41690</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1738,54 +1636,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="D6" s="7">
-        <v>22186</v>
+        <v>114834</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="I6" s="7">
-        <v>19504</v>
+        <v>128997</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>357</v>
       </c>
       <c r="N6" s="7">
-        <v>41690</v>
+        <v>243832</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1794,97 +1692,97 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>2004</v>
+        <v>1835</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>598</v>
+        <v>3348</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>2602</v>
+        <v>5183</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="D8" s="7">
-        <v>104807</v>
+        <v>163518</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>141</v>
+        <v>268</v>
       </c>
       <c r="I8" s="7">
-        <v>94733</v>
+        <v>175949</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>299</v>
+        <v>530</v>
       </c>
       <c r="N8" s="7">
-        <v>199540</v>
+        <v>339466</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,54 +1791,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="D9" s="7">
-        <v>106811</v>
+        <v>165353</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>142</v>
+        <v>273</v>
       </c>
       <c r="I9" s="7">
-        <v>95331</v>
+        <v>179297</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>303</v>
+        <v>538</v>
       </c>
       <c r="N9" s="7">
-        <v>202142</v>
+        <v>344649</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1949,97 +1847,97 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>3348</v>
+        <v>2924</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>1835</v>
+        <v>2411</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>5183</v>
+        <v>5335</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="D11" s="7">
-        <v>175948</v>
+        <v>121653</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="I11" s="7">
-        <v>163518</v>
+        <v>130737</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>530</v>
+        <v>404</v>
       </c>
       <c r="N11" s="7">
-        <v>339466</v>
+        <v>252391</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2048,153 +1946,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="D12" s="7">
-        <v>179296</v>
+        <v>124577</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="I12" s="7">
-        <v>165353</v>
+        <v>133148</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>538</v>
+        <v>413</v>
       </c>
       <c r="N12" s="7">
-        <v>344649</v>
+        <v>257726</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>2411</v>
+        <v>5395</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>2924</v>
+        <v>2164</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>5335</v>
+        <v>7559</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="D14" s="7">
-        <v>130737</v>
+        <v>186437</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="I14" s="7">
-        <v>121653</v>
+        <v>179142</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>404</v>
+        <v>509</v>
       </c>
       <c r="N14" s="7">
-        <v>252391</v>
+        <v>365578</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,153 +2101,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="D15" s="7">
-        <v>133148</v>
+        <v>191832</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="I15" s="7">
-        <v>124577</v>
+        <v>181306</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>413</v>
+        <v>519</v>
       </c>
       <c r="N15" s="7">
-        <v>257726</v>
+        <v>373137</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>2164</v>
+        <v>10752</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>5395</v>
+        <v>9927</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="N16" s="7">
-        <v>7559</v>
+        <v>20679</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>265</v>
+        <v>874</v>
       </c>
       <c r="D17" s="7">
-        <v>179142</v>
+        <v>585844</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>244</v>
+        <v>922</v>
       </c>
       <c r="I17" s="7">
-        <v>186437</v>
+        <v>612821</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>509</v>
+        <v>1796</v>
       </c>
       <c r="N17" s="7">
-        <v>365578</v>
+        <v>1198665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,217 +2256,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>268</v>
+        <v>890</v>
       </c>
       <c r="D18" s="7">
-        <v>181306</v>
+        <v>596596</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>251</v>
+        <v>937</v>
       </c>
       <c r="I18" s="7">
-        <v>191832</v>
+        <v>622748</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>519</v>
+        <v>1827</v>
       </c>
       <c r="N18" s="7">
-        <v>373137</v>
+        <v>1219344</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>15</v>
-      </c>
-      <c r="D19" s="7">
-        <v>9927</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="7">
-        <v>16</v>
-      </c>
-      <c r="I19" s="7">
-        <v>10752</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M19" s="7">
-        <v>31</v>
-      </c>
-      <c r="N19" s="7">
-        <v>20679</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>922</v>
-      </c>
-      <c r="D20" s="7">
-        <v>612821</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="7">
-        <v>874</v>
-      </c>
-      <c r="I20" s="7">
-        <v>585844</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1796</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1198665</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>937</v>
-      </c>
-      <c r="D21" s="7">
-        <v>622748</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>890</v>
-      </c>
-      <c r="I21" s="7">
-        <v>596596</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1827</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1219344</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2581,8 +2323,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652021C8-6658-4058-9E2C-B2B44DE46726}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701CB81B-E99F-426B-AC2C-CA0512126409}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2598,7 +2340,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2699,100 +2441,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>2036</v>
+        <v>704</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6561</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>2036</v>
+        <v>7264</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="D5" s="7">
-        <v>21630</v>
+        <v>127693</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>185</v>
+      </c>
+      <c r="I5" s="7">
+        <v>135071</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" s="7">
+        <v>358</v>
+      </c>
+      <c r="N5" s="7">
+        <v>262765</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7">
-        <v>20777</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>48</v>
-      </c>
-      <c r="N5" s="7">
-        <v>42407</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,54 +2543,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="D6" s="7">
-        <v>23666</v>
+        <v>128397</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="I6" s="7">
-        <v>20777</v>
+        <v>141632</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>50</v>
+        <v>367</v>
       </c>
       <c r="N6" s="7">
-        <v>44443</v>
+        <v>270029</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2857,88 +2599,88 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>4524</v>
+        <v>3668</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1897</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>704</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>9</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5565</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="M7" s="7">
-        <v>7</v>
-      </c>
-      <c r="N7" s="7">
-        <v>5228</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>161</v>
+        <v>288</v>
       </c>
       <c r="D8" s="7">
-        <v>113442</v>
+        <v>186584</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>285</v>
+      </c>
+      <c r="I8" s="7">
+        <v>197328</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H8" s="7">
-        <v>149</v>
-      </c>
-      <c r="I8" s="7">
-        <v>106917</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M8" s="7">
-        <v>310</v>
+        <v>573</v>
       </c>
       <c r="N8" s="7">
-        <v>220358</v>
+        <v>383913</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>137</v>
@@ -2956,153 +2698,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>167</v>
+        <v>294</v>
       </c>
       <c r="D9" s="7">
-        <v>117966</v>
+        <v>190252</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>150</v>
+        <v>288</v>
       </c>
       <c r="I9" s="7">
-        <v>107621</v>
+        <v>199225</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>317</v>
+        <v>582</v>
       </c>
       <c r="N9" s="7">
-        <v>225586</v>
+        <v>389478</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1897</v>
+        <v>627</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2509</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3668</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3136</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="M10" s="7">
-        <v>9</v>
-      </c>
-      <c r="N10" s="7">
-        <v>5565</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="D11" s="7">
-        <v>197328</v>
+        <v>134548</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7">
+        <v>226</v>
+      </c>
+      <c r="I11" s="7">
+        <v>148052</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="7">
-        <v>288</v>
-      </c>
-      <c r="I11" s="7">
-        <v>186584</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>435</v>
+      </c>
+      <c r="N11" s="7">
+        <v>282600</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="M11" s="7">
-        <v>573</v>
-      </c>
-      <c r="N11" s="7">
-        <v>383913</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,54 +2853,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>288</v>
+        <v>210</v>
       </c>
       <c r="D12" s="7">
-        <v>199225</v>
+        <v>135175</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="I12" s="7">
-        <v>190252</v>
+        <v>150561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>582</v>
+        <v>440</v>
       </c>
       <c r="N12" s="7">
-        <v>389478</v>
+        <v>285736</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3167,97 +2909,97 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>2509</v>
+        <v>2904</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4474</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="7">
+        <v>10</v>
+      </c>
+      <c r="N13" s="7">
+        <v>7378</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>627</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M13" s="7">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3136</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="D14" s="7">
-        <v>148052</v>
+        <v>193845</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="I14" s="7">
-        <v>134548</v>
+        <v>192525</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="M14" s="7">
-        <v>435</v>
+        <v>515</v>
       </c>
       <c r="N14" s="7">
-        <v>282600</v>
+        <v>386369</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,153 +3008,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="D15" s="7">
-        <v>150561</v>
+        <v>196749</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="I15" s="7">
-        <v>135175</v>
+        <v>196999</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>440</v>
+        <v>525</v>
       </c>
       <c r="N15" s="7">
-        <v>285736</v>
+        <v>393747</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>4474</v>
+        <v>7903</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I16" s="7">
-        <v>2904</v>
+        <v>15440</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N16" s="7">
-        <v>7378</v>
+        <v>23343</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>261</v>
+        <v>924</v>
       </c>
       <c r="D17" s="7">
-        <v>192525</v>
+        <v>642670</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="7">
+        <v>957</v>
+      </c>
+      <c r="I17" s="7">
+        <v>672978</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1881</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1315648</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" s="7">
-        <v>254</v>
-      </c>
-      <c r="I17" s="7">
-        <v>193845</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="7">
-        <v>515</v>
-      </c>
-      <c r="N17" s="7">
-        <v>386369</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,217 +3163,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>267</v>
+        <v>936</v>
       </c>
       <c r="D18" s="7">
-        <v>196999</v>
+        <v>650573</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>258</v>
+        <v>978</v>
       </c>
       <c r="I18" s="7">
-        <v>196749</v>
+        <v>688418</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>525</v>
+        <v>1914</v>
       </c>
       <c r="N18" s="7">
-        <v>393747</v>
+        <v>1338991</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>21</v>
-      </c>
-      <c r="D19" s="7">
-        <v>15440</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>7903</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M19" s="7">
-        <v>33</v>
-      </c>
-      <c r="N19" s="7">
-        <v>23343</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>957</v>
-      </c>
-      <c r="D20" s="7">
-        <v>672978</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H20" s="7">
-        <v>924</v>
-      </c>
-      <c r="I20" s="7">
-        <v>642670</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1881</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1315647</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>978</v>
-      </c>
-      <c r="D21" s="7">
-        <v>688418</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>936</v>
-      </c>
-      <c r="I21" s="7">
-        <v>650573</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1914</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1338990</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3644,8 +3230,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9935FB0-20DA-4FCF-BA3C-ED4592064D4D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B3DEEC-1AA3-4CAE-98A2-E1CCB3B11FB6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3661,7 +3247,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3762,100 +3348,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>1670</v>
+        <v>2044</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1670</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>1670</v>
+        <v>3713</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="D5" s="7">
-        <v>23904</v>
+        <v>117458</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="I5" s="7">
-        <v>20847</v>
+        <v>132252</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>50</v>
+        <v>337</v>
       </c>
       <c r="N5" s="7">
-        <v>44751</v>
+        <v>249711</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,153 +3450,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>119502</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="I6" s="7">
-        <v>20847</v>
+        <v>133922</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>52</v>
+        <v>342</v>
       </c>
       <c r="N6" s="7">
-        <v>46421</v>
+        <v>253424</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>4765</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>2044</v>
+        <v>4115</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>2044</v>
+        <v>8880</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>146</v>
+        <v>299</v>
       </c>
       <c r="D8" s="7">
-        <v>108348</v>
+        <v>185778</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7">
-        <v>141</v>
+        <v>296</v>
       </c>
       <c r="I8" s="7">
-        <v>96611</v>
+        <v>199635</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
-        <v>287</v>
+        <v>595</v>
       </c>
       <c r="N8" s="7">
-        <v>204959</v>
+        <v>385412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>93</v>
+        <v>208</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,153 +3605,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>146</v>
+        <v>307</v>
       </c>
       <c r="D9" s="7">
-        <v>108348</v>
+        <v>190543</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>144</v>
+        <v>302</v>
       </c>
       <c r="I9" s="7">
-        <v>98655</v>
+        <v>203750</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>290</v>
+        <v>609</v>
       </c>
       <c r="N9" s="7">
-        <v>207003</v>
+        <v>394292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>4115</v>
+        <v>2972</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>4765</v>
+        <v>1136</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>8880</v>
+        <v>4108</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>296</v>
+        <v>212</v>
       </c>
       <c r="D11" s="7">
-        <v>199635</v>
+        <v>126494</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>229</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>299</v>
+        <v>205</v>
       </c>
       <c r="I11" s="7">
-        <v>185778</v>
+        <v>137340</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>595</v>
+        <v>417</v>
       </c>
       <c r="N11" s="7">
-        <v>385412</v>
+        <v>263833</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,153 +3760,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="D12" s="7">
-        <v>203750</v>
+        <v>129466</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="I12" s="7">
-        <v>190543</v>
+        <v>138476</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>609</v>
+        <v>424</v>
       </c>
       <c r="N12" s="7">
-        <v>394292</v>
+        <v>267941</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>1136</v>
+        <v>3095</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H13" s="7">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4862</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="7">
         <v>11</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2972</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M13" s="7">
-        <v>7</v>
-      </c>
       <c r="N13" s="7">
-        <v>4108</v>
+        <v>7957</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="D14" s="7">
-        <v>137340</v>
+        <v>182925</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="I14" s="7">
-        <v>126494</v>
+        <v>172404</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>242</v>
+        <v>115</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="M14" s="7">
-        <v>417</v>
+        <v>490</v>
       </c>
       <c r="N14" s="7">
-        <v>263834</v>
+        <v>355329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>35</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,153 +3915,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="D15" s="7">
-        <v>138476</v>
+        <v>186020</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="I15" s="7">
-        <v>129466</v>
+        <v>177266</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>424</v>
+        <v>501</v>
       </c>
       <c r="N15" s="7">
-        <v>267942</v>
+        <v>363286</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>4862</v>
+        <v>12875</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>3095</v>
+        <v>11784</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>250</v>
+        <v>68</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="N16" s="7">
-        <v>7957</v>
+        <v>24658</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>251</v>
+        <v>122</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>922</v>
+      </c>
+      <c r="D17" s="7">
+        <v>612655</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D17" s="7">
-        <v>172404</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="H17" s="7">
-        <v>248</v>
+        <v>917</v>
       </c>
       <c r="I17" s="7">
-        <v>182925</v>
+        <v>641630</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
-        <v>490</v>
+        <v>1839</v>
       </c>
       <c r="N17" s="7">
-        <v>355329</v>
+        <v>1254286</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,217 +4070,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>249</v>
+        <v>942</v>
       </c>
       <c r="D18" s="7">
-        <v>177266</v>
+        <v>625530</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>252</v>
+        <v>934</v>
       </c>
       <c r="I18" s="7">
-        <v>186020</v>
+        <v>653414</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>501</v>
+        <v>1876</v>
       </c>
       <c r="N18" s="7">
-        <v>363286</v>
+        <v>1278944</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>17</v>
-      </c>
-      <c r="D19" s="7">
-        <v>11784</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H19" s="7">
-        <v>20</v>
-      </c>
-      <c r="I19" s="7">
-        <v>12875</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M19" s="7">
-        <v>37</v>
-      </c>
-      <c r="N19" s="7">
-        <v>24658</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>917</v>
-      </c>
-      <c r="D20" s="7">
-        <v>641630</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="7">
-        <v>922</v>
-      </c>
-      <c r="I20" s="7">
-        <v>612655</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1839</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1254286</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>934</v>
-      </c>
-      <c r="D21" s="7">
-        <v>653414</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>942</v>
-      </c>
-      <c r="I21" s="7">
-        <v>625530</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1876</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1278944</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4707,8 +4137,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5676FCB-F942-4A3C-9BA1-3715C7C73FBA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364E5F49-645C-48B5-B492-6D9D4CB91AD2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4724,7 +4154,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4828,97 +4258,97 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>765</v>
+        <v>1120</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1361</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>765</v>
+        <v>2480</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>251</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>3905</v>
+        <v>15934</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>4563</v>
+        <v>20305</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="N5" s="7">
-        <v>8468</v>
+        <v>36240</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,54 +4357,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>4670</v>
+        <v>17054</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>4563</v>
+        <v>21666</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="N6" s="7">
-        <v>9233</v>
+        <v>38720</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4983,97 +4413,97 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>539</v>
+        <v>161</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>1081</v>
+        <v>1817</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>1620</v>
+        <v>1978</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D8" s="7">
-        <v>15346</v>
+        <v>28814</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I8" s="7">
-        <v>11256</v>
+        <v>47919</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="N8" s="7">
-        <v>26601</v>
+        <v>76733</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,54 +4512,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D9" s="7">
-        <v>15885</v>
+        <v>28975</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I9" s="7">
-        <v>12337</v>
+        <v>49736</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="N9" s="7">
-        <v>28221</v>
+        <v>78711</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5138,97 +4568,97 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>1775</v>
+        <v>2061</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>144</v>
+        <v>275</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>158</v>
+        <v>955</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>1933</v>
+        <v>3016</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7">
-        <v>46843</v>
+        <v>24175</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>284</v>
       </c>
       <c r="H11" s="7">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>28937</v>
+        <v>30725</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="N11" s="7">
-        <v>75780</v>
+        <v>54901</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,153 +4667,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7">
-        <v>48618</v>
+        <v>26236</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I12" s="7">
-        <v>29095</v>
+        <v>31680</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="N12" s="7">
-        <v>77713</v>
+        <v>57917</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>935</v>
+        <v>2374</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>2061</v>
+        <v>3229</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>2996</v>
+        <v>5602</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7">
-        <v>28917</v>
+        <v>25675</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I14" s="7">
-        <v>23260</v>
+        <v>25281</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N14" s="7">
-        <v>52177</v>
+        <v>50957</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,153 +4822,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7">
-        <v>29852</v>
+        <v>28049</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I15" s="7">
-        <v>25321</v>
+        <v>28510</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N15" s="7">
-        <v>55173</v>
+        <v>56559</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>3174</v>
+        <v>5715</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>2484</v>
+        <v>7361</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N16" s="7">
-        <v>5659</v>
+        <v>13077</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="D17" s="7">
-        <v>24227</v>
+        <v>94599</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="I17" s="7">
-        <v>26123</v>
+        <v>124231</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="N17" s="7">
-        <v>50349</v>
+        <v>218829</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,217 +4977,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="D18" s="7">
-        <v>27401</v>
+        <v>100314</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="I18" s="7">
-        <v>28607</v>
+        <v>131592</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="N18" s="7">
-        <v>56008</v>
+        <v>231906</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>11</v>
-      </c>
-      <c r="D19" s="7">
-        <v>7188</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5785</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M19" s="7">
-        <v>20</v>
-      </c>
-      <c r="N19" s="7">
-        <v>12973</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>177</v>
-      </c>
-      <c r="D20" s="7">
-        <v>119237</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H20" s="7">
-        <v>144</v>
-      </c>
-      <c r="I20" s="7">
-        <v>94138</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="M20" s="7">
-        <v>321</v>
-      </c>
-      <c r="N20" s="7">
-        <v>213375</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>188</v>
-      </c>
-      <c r="D21" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>153</v>
-      </c>
-      <c r="I21" s="7">
-        <v>99923</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>341</v>
-      </c>
-      <c r="N21" s="7">
-        <v>226348</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
